--- a/data/trans_bre/CAGE_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CAGE_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-2.064100134898277</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-4.62168756513137</v>
+        <v>-4.621687565131372</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.7167929751397273</v>
@@ -649,7 +649,7 @@
         <v>-0.9489729222448843</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.7959241937183597</v>
+        <v>-0.7959241937183598</v>
       </c>
     </row>
     <row r="5">
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.399010377709103</v>
+        <v>-1.336019517004869</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.157258223827422</v>
+        <v>-3.055139117328938</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.264056792096722</v>
+        <v>-3.49864846225669</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.127924742180982</v>
+        <v>-7.854394919543386</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>-1</v>
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.0151552474438619</v>
+        <v>0.03011483135419891</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.107350889975099</v>
+        <v>-1.028959127452008</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.023929235802371</v>
+        <v>-1.114745922000505</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.589785739615849</v>
+        <v>-1.577425150971828</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7083953183267248</v>
+        <v>0.7338350751102586</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
-        <v>-0.5968217095488115</v>
+        <v>-0.6416107698463405</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.1886513415854011</v>
+        <v>-0.1129328536412177</v>
       </c>
     </row>
     <row r="7">
@@ -756,28 +756,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.123904100475946</v>
+        <v>-1.136608040816664</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.556991504624821</v>
+        <v>-2.58352766001537</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.543281891910748</v>
+        <v>-1.507807823569136</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.7234338874461895</v>
+        <v>-0.7921742674551501</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.9198980930980032</v>
+        <v>-0.9402424219802276</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9479530285020443</v>
+        <v>-0.9690971800736892</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8541138620234164</v>
+        <v>-0.8580073330387813</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4651291231936012</v>
+        <v>-0.5003228096254474</v>
       </c>
     </row>
     <row r="9">
@@ -788,28 +788,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.1352409110914294</v>
+        <v>-0.06871916472942355</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-1.204317816030747</v>
+        <v>-1.179844474875814</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-0.3060645661431709</v>
+        <v>-0.331881316679376</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.420372279964093</v>
+        <v>2.547995283567758</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.07690747840326052</v>
+        <v>0.06337394210937972</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.6378489386512481</v>
+        <v>-0.6705957883662643</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2719372128856774</v>
+        <v>-0.2455271027648224</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.724399976468435</v>
+        <v>2.773340452584497</v>
       </c>
     </row>
     <row r="10">
@@ -856,24 +856,24 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.095984580766473</v>
+        <v>-1.179733871756085</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.327247947031764</v>
+        <v>-3.251809519791939</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8888680628313544</v>
+        <v>-0.7403528077257365</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.57196972642992</v>
+        <v>-3.656934063063333</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>-0.8348911630105847</v>
+        <v>-0.8051118533622826</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.8281106525671929</v>
+        <v>-0.8332947095392852</v>
       </c>
     </row>
     <row r="12">
@@ -884,24 +884,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7160587304421825</v>
+        <v>0.6505927876843612</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.3894506273219427</v>
+        <v>-0.3860624865428745</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.985926671537623</v>
+        <v>2.037745050651813</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6229570276502043</v>
+        <v>0.4882114071476799</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="n">
-        <v>8.658901691510325</v>
+        <v>11.33871029969688</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4792896451972765</v>
+        <v>0.4638994496745866</v>
       </c>
     </row>
     <row r="13">
@@ -948,28 +948,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.868029789446578</v>
+        <v>-0.9016707560207763</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.376766989758484</v>
+        <v>-2.357315991635681</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.450675403637225</v>
+        <v>-1.50260587689819</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.749315981795097</v>
+        <v>-1.746342329823514</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.869402852125411</v>
+        <v>-0.8628740400283609</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.974153157037137</v>
+        <v>-0.9718026925501815</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8211096678819001</v>
+        <v>-0.8259541743684973</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6018243641143041</v>
+        <v>-0.5974893503826463</v>
       </c>
     </row>
     <row r="15">
@@ -980,28 +980,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.1333907173734821</v>
+        <v>-0.1656807253704455</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.316741321937496</v>
+        <v>-1.32785918792865</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.4708638827543014</v>
+        <v>-0.5190125551894532</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7383744245880866</v>
+        <v>0.7131703278652276</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2093267806426388</v>
+        <v>-0.2726579880916451</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.8158751759345639</v>
+        <v>-0.8138950251183195</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.4112993866317857</v>
+        <v>-0.4296155306973719</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.382370490142994</v>
+        <v>0.3649892651914298</v>
       </c>
     </row>
     <row r="16">
